--- a/04_rows_&_columns.xlsx
+++ b/04_rows_&_columns.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\broha\OneDrive\Desktop\Data Science\MS Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2B1966D-BB17-4C49-8667-A50AF4C16CC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45FD6EC5-AF98-4F0E-94E9-E4CC15E31C2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -456,7 +456,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="O12" sqref="O12"/>
+      <selection pane="bottomRight" activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
